--- a/meta/3-9-3.xlsx
+++ b/meta/3-9-3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\гвц\Desktop\Миссия Мархонько\Метаданные для заполнения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46834961-B35D-4A84-BBC5-74B90464DF62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.9.3" sheetId="1" r:id="rId1"/>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -292,9 +293,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -327,8 +325,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,234 +603,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
-      <c r="K65" s="1"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="3"/>
+      <c r="K63" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta/3-9-3.xlsx
+++ b/meta/3-9-3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFF182-122E-4533-A6EA-B0A822570BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,18 +116,6 @@
     <t>Национальный статистический комитет КР (отдел демографической статистики), ГРС при ПКР, Минздрав КР</t>
   </si>
   <si>
-    <t>Абдуллаева Г.Т.</t>
-  </si>
-  <si>
-    <t>gulhumara@mail.ru</t>
-  </si>
-  <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Число смертей, связанных с непреднамеренным отравлением, определяемые как количество случаев непреднамеренных отравлений на 100 000 населения.</t>
   </si>
   <si>
@@ -164,18 +151,38 @@
   </si>
   <si>
     <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/.</t>
+  </si>
+  <si>
+    <t>Мааткулова Ж. Б.</t>
+  </si>
+  <si>
+    <t>j.maatkulova@stat.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (312) 32 55 46</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,32 +249,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{8EAC4DE7-207B-4C6D-97C8-33019C4B9612}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B1FF6F-D7CF-4F29-B4C4-0503FD831022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,8 +617,8 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,23 +626,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -697,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
